--- a/Output_testing/R1_201907/Country/HKD/MN/GUINEA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUINEA_201907_HKD_MN.xlsx
@@ -544,21 +544,29 @@
       <c r="C7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.026</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>∞</t>
         </is>
       </c>
       <c r="I7" s="9" t="n">
@@ -566,7 +574,7 @@
       </c>
       <c r="J7" s="9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/Output_testing/R1_201907/Country/HKD/MN/GUINEA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUINEA_201907_HKD_MN.xlsx
@@ -822,136 +822,461 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>77.640086</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>77.83117632580336</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>106.840412</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>86.2591461974424</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>155.24014</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>79.90960483758022</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>99.25045</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>87.31012893100856</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>35.40397288598556</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.6975</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.6992167098739154</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2.251772</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1.818000572211452</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.532213</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.7887041029272667</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3.543184</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.116921403039348</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>353.5565796210958</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.1440216003930691</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.033794</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.789118501317744</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.638652</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.642685104040589</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.022305</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.040978147862162</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.37826</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.212448490666308</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>100.7431045808275</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.582027</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.5834595039394772</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>0.879013</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.709683812118325</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.017045</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.067767257648553</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.33327</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.172871010658851</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>36.31669781651175</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2757674246981509</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.097057</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.5647082729653635</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.086243</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.9555625831460265</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>26.15974801569327</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1217278650369601</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.94307</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.7614011541290387</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.387577</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7142529615840016</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.759633</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.6682453849856482</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>45.39460210579504</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>CUTLERY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.604758</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.608707683016265</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.668988</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5401171019102267</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.383066</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.7119309318085691</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.665753</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.585659614301051</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-2.838291245926383</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.925955</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.55494752224182</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.131878</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.5826323250181984</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.576895</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5074916721249545</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>1.749815688197343</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.366577</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.372401696922267</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.25046</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.00957690011579</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.7158060000000001</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3684599524347823</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.544272</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.47879338072057</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-23.96375554270291</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>14.934746</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.97150388662741</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>8.734938</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>7.052278064667096</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>25.666908</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.21199836384151</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.504003</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.202759028030928</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-74.16637658898775</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1308,629 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PREPARED ADDITIVES FOR MINERAL OILS; PREPARED LIQUIDS FOR HYDRAULIC TRANSMISSIONS; ANTI-FREEZING PREPARATIONS AND PREPARED DE-ICING FLUIDS; LUBRICATING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>METALLIC SALTS AND PEROXYSALTS, OF INORGANIC ACIDS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1962,461 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>77.640086</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>77.83117632580336</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>106.840412</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>86.27725706599652</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>155.24014</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>79.90960483758022</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>99.25045</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>87.31012893100856</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>35.40397288598556</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.6975</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.6992167098739154</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2.251772</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1.818382277466444</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.532213</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>0.7887041029272667</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3.543184</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.116921403039348</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>353.5565796210958</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.1440216003930691</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.033794</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.789118501317744</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.638652</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.642685104040589</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.022305</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.040978147862162</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.37826</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.212448490666308</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>100.7431045808275</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.582027</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.5834595039394772</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.879013</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.7098328164941259</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>4.017045</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.067767257648553</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.33327</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.172871010658851</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>36.31669781651175</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2758253245012487</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.097057</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.5647082729653635</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.086243</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.9555625831460265</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>26.15974801569327</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1217278650369601</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.94307</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.7615610170169443</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.387577</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7142529615840016</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.759633</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.6682453849856482</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>45.39460210579504</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>CUTLERY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.604758</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.608707683016265</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.668988</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5402305042596325</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.383066</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.7119309318085691</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.665753</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.585659614301051</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-2.838291245926383</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.925955</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.555273997188829</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.131878</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5826323250181984</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.576895</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5074916721249545</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>1.749815688197343</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.366577</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.372401696922267</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.25046</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.009788869690488</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.7158060000000001</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3684599524347823</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.544272</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.47879338072057</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-23.96375554270291</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>14.934746</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.97150388662741</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8.708938</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.032762870643232</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>25.666908</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.21199836384151</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.504003</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.202759028030928</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-74.16637658898775</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2448,531 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>16.134899</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>87.37101593660556</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>16.644104</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>67.7122180368616</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>14.43643</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>59.39662055803265</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>4.166137</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>42.54542565421143</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-46.16673497899719</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>3.295071</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>13.40514130402812</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4.632314</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>19.05899152101056</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>3.910963</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>39.93953764671485</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>2.934273041861557</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.603331</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>3.267057476842475</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.435348</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.839340870182812</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.787437</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.354153157005451</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.285021</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.12289188272023</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>244.3065752103317</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3495945520865829</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.065329</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.334014587327244</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2.975287</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>12.2413916037585</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.697102461763224</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>301.1390581717451</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.319486966745793</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.577508</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.417681940156915</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.3592244717649606</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.6746179539264328</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1316773655992788</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.08675929697712237</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.1835332176897419</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-89.97493734335839</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.000787163855017</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.093966267295675</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.2999920547262968</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.1604599060684167</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.151659297374049</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.9040647458848833</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>8.561167702120317</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
